--- a/doc/DB設計書.xlsx
+++ b/doc/DB設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianx\workspaces\money_nest_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1641C0-4573-498A-AAFF-AF4E4124254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B0F90A-091F-4E4E-8DB2-AA84DDE5E713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="282">
   <si>
     <t>バージョン</t>
   </si>
@@ -1912,12 +1912,199 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>以.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>以r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>以^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-RI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-R结尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2068,6 +2255,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2290,7 +2491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2450,6 +2651,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11885,10 +12089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49778237-C225-4FBB-9AED-AD2A457C3CBC}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -12019,227 +12223,253 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>229</v>
+      <c r="A6" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>278</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>235</v>
+      <c r="H6" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>236</v>
+        <v>229</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>235</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>243</v>
+      <c r="H7" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="43" t="s">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H12" s="43" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H13" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H18" s="43" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+    <row r="19" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H20" s="43" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H24" s="43" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="43" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H25" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H26" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="43" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="43" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="43" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="43" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="43" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="43" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="43" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="43" t="s">
         <v>263</v>
       </c>
     </row>

--- a/doc/DB設計書.xlsx
+++ b/doc/DB設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianx\workspaces\money_nest_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B0F90A-091F-4E4E-8DB2-AA84DDE5E713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867678F-CD84-4CE2-AE11-CB2422A3AF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="284">
   <si>
     <t>バージョン</t>
   </si>
@@ -1567,22 +1567,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>UN</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.  .  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转换为  -</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -1848,7 +1832,312 @@
   </si>
   <si>
     <r>
+      <t>以.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>以r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t>以^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-RI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-R结尾</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>4. ^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-RI</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.  .  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  -</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
       <t>4. parts[idx_nasdaq]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ^ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  -R，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成小写字母，最后加上 ".us.txt"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>5. parts[idx_nasdaq]</t>
     </r>
     <r>
       <rPr>
@@ -1909,193 +2198,6 @@
         <charset val="134"/>
       </rPr>
       <t>成小写字母，最后加上 ".us.txt"</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>以.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尾</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>以r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尾</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <t>以^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尾</t>
-    </r>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尾</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结尾</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-R结尾</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -12092,7 +12194,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -12224,25 +12326,25 @@
     </row>
     <row r="6" spans="1:10" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="E6" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>279</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>233</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>245</v>
@@ -12315,7 +12417,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>258</v>
@@ -12352,36 +12454,36 @@
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>265</v>
+    <row r="20" spans="1:8" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>270</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>272</v>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>246</v>
@@ -12389,7 +12491,7 @@
     </row>
     <row r="23" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>247</v>
@@ -12397,18 +12499,24 @@
     </row>
     <row r="24" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>282</v>
+      </c>
       <c r="H25" s="43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>283</v>
+      </c>
       <c r="H26" s="43" t="s">
         <v>254</v>
       </c>
